--- a/learning_path/RFP - Correction guide.xlsx
+++ b/learning_path/RFP - Correction guide.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\delphine.gilbert\Downloads\RFP - document a11y\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\c_work_requests\Document Auditor Learning Path\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423F8528-04CD-4A27-8053-ABCA6BCD4D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5052" windowHeight="480"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerPoint" sheetId="1" r:id="rId1"/>
@@ -116,9 +117,6 @@
     <t>F63: Failure of Success Criterion 2.4.4 due to providing link context only in content that is not related to the link</t>
   </si>
   <si>
-    <t>Slide 4: link under the image is not meaningul out of context</t>
-  </si>
-  <si>
     <t>F89: Failure of Success Criteria 2.4.4, 2.4.9 and 4.1.2 due to not providing an accessible name 
 for an image which is the only content in a link</t>
   </si>
@@ -312,12 +310,15 @@
   <si>
     <t>Document's title is not specified.</t>
   </si>
+  <si>
+    <t>Slide 4: link under the image is not meaningful out of context</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -687,39 +688,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:C14" totalsRowShown="0" dataDxfId="19">
-  <autoFilter ref="A1:C14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:C14" totalsRowShown="0" dataDxfId="19">
+  <autoFilter ref="A1:C14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="WCAG Criteria" dataDxfId="18"/>
-    <tableColumn id="3" name="WCAG Technique" dataDxfId="17"/>
-    <tableColumn id="4" name="Error(s)" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="WCAG Criteria" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="WCAG Technique" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Error(s)" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:C14" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11" dataCellStyle="Normal">
-  <autoFilter ref="A1:C14"/>
-  <sortState ref="A2:C13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau2" displayName="Tableau2" ref="A1:C14" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11" dataCellStyle="Normal">
+  <autoFilter ref="A1:C14" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C13">
     <sortCondition ref="A1:A13"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="WCAG Criteria" dataDxfId="10" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="WCAG Technique" dataDxfId="9" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Error(s)" dataDxfId="8" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="WCAG Criteria" dataDxfId="10" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="WCAG Technique" dataDxfId="9" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Error(s)" dataDxfId="8" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="A1:C11" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:C11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau3" displayName="Tableau3" ref="A1:C11" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C11" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="WCAG Criteria" dataDxfId="2"/>
-    <tableColumn id="2" name="WCAG Technique" dataDxfId="1"/>
-    <tableColumn id="3" name="Error(s)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="WCAG Criteria" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="WCAG Technique" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Error(s)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -987,21 +988,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="102.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="92.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="102.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="92.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1012,7 +1013,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="29">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1023,7 +1024,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="29">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1034,7 +1035,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
@@ -1042,135 +1043,135 @@
         <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="29">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="29">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:3" ht="29">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="72.5">
+      <c r="A10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="2" t="s">
+    <row r="11" spans="1:3" ht="29">
+      <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="B11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:3" ht="29">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1185,21 +1186,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="100" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="101" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1210,7 +1211,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="43.5">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1218,76 +1219,76 @@
         <v>21</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="29">
+      <c r="A3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="58">
+      <c r="A4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="58">
       <c r="A6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="29">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="29">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -1295,93 +1296,94 @@
         <v>26</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="29">
       <c r="A13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="4"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.54296875" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="134" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="83.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.90625" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="16" customFormat="1">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1393,159 +1395,159 @@
       </c>
       <c r="D1" s="15"/>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="31.5" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="1" customFormat="1">
       <c r="A6" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="29">
       <c r="A9" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>80</v>
-      </c>
       <c r="C10" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -1579,11 +1581,48 @@
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1796,72 +1835,35 @@
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FDBDA2D-1EA4-47F8-8B73-F27E91C29B41}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="13a99587-b27c-4278-bf76-39632ec58394"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="b604265f-bd31-4bf8-9ddc-2aeba1ed1831"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="13a99587-b27c-4278-bf76-39632ec58394"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="b604265f-bd31-4bf8-9ddc-2aeba1ed1831"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BC341DC-0A61-4B8E-822A-28DA9DD06FD6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A6D8B0C-BA1F-46C7-8CF5-D4E6B7816E32}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1887,9 +1889,9 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A6D8B0C-BA1F-46C7-8CF5-D4E6B7816E32}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BC341DC-0A61-4B8E-822A-28DA9DD06FD6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>